--- a/Dudas Mentor.xlsx
+++ b/Dudas Mentor.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi Dichiachio\Desktop\Data Science Henry\LABS\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B98A54-7815-4C03-BEAA-F6A58EB740E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6360C4-CF98-44BB-BD9A-D10BB12F95DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DC6B61E-7474-487F-A751-365A0CCB1BD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1DC6B61E-7474-487F-A751-365A0CCB1BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Clase 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Demo 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Dudas</t>
   </si>
@@ -70,6 +71,24 @@
   </si>
   <si>
     <t>7.</t>
+  </si>
+  <si>
+    <t>Dudas Demo 1</t>
+  </si>
+  <si>
+    <t>Cómo presentamos el EDA, simplemente una descripción de datos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. </t>
+  </si>
+  <si>
+    <t>En cuanto al pipeline de API y render, como se explica la conexión entre la salida del modelo y el github? Sólo sería el archivo pkl con el modelo entrenado?</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Desde que parte del proceso se debería describir el pipeline?</t>
   </si>
 </sst>
 </file>
@@ -432,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E159075-4AD0-4AB4-8122-D0A8C1B195E3}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -506,4 +525,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E04C24-4AEF-4AFF-9F5C-AF9F33EC307D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dudas Mentor.xlsx
+++ b/Dudas Mentor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi Dichiachio\Desktop\Data Science Henry\LABS\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6360C4-CF98-44BB-BD9A-D10BB12F95DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62369F87-0AD9-4F05-A9CC-476BDB6E1CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1DC6B61E-7474-487F-A751-365A0CCB1BD1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Dudas</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Desde que parte del proceso se debería describir el pipeline?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. </t>
+  </si>
+  <si>
+    <t>Conviene proteger la rama master? Que es el pull request?</t>
   </si>
 </sst>
 </file>
@@ -529,10 +535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E04C24-4AEF-4AFF-9F5C-AF9F33EC307D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,6 +575,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
